--- a/task1_rename_table.xlsx
+++ b/task1_rename_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yankefeli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED991CC2-7452-4F95-95EA-0DA046916B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7501B1A-14C8-4C71-9B8B-C346D863A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>dinstr</t>
   </si>
@@ -123,67 +123,64 @@
     <t>(instr 10)</t>
   </si>
   <si>
-    <t>p32</t>
-  </si>
-  <si>
-    <t>p33</t>
-  </si>
-  <si>
-    <t>p34</t>
-  </si>
-  <si>
-    <t>p35</t>
-  </si>
-  <si>
-    <t>p36</t>
-  </si>
-  <si>
-    <t>p32,YES</t>
-  </si>
-  <si>
-    <t>p33,YES</t>
-  </si>
-  <si>
-    <t>p33,NO</t>
-  </si>
-  <si>
-    <t>p34,NO</t>
-  </si>
-  <si>
-    <t>p35,NO</t>
-  </si>
-  <si>
-    <t>p34,YES</t>
-  </si>
-  <si>
-    <t>p37</t>
-  </si>
-  <si>
-    <t>p36,NO</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>p36,YES</t>
-  </si>
-  <si>
-    <t>p37,NO</t>
-  </si>
-  <si>
-    <t>p39</t>
-  </si>
-  <si>
-    <t>p37,YES</t>
-  </si>
-  <si>
-    <t>p40</t>
-  </si>
-  <si>
-    <t>p40,YES</t>
-  </si>
-  <si>
-    <t>p0,YES</t>
+    <t>r32</t>
+  </si>
+  <si>
+    <t>r33</t>
+  </si>
+  <si>
+    <t>r34</t>
+  </si>
+  <si>
+    <t>r35</t>
+  </si>
+  <si>
+    <t>r36</t>
+  </si>
+  <si>
+    <t>r37</t>
+  </si>
+  <si>
+    <t>r38</t>
+  </si>
+  <si>
+    <t>r39</t>
+  </si>
+  <si>
+    <t>r32,YES</t>
+  </si>
+  <si>
+    <t>r33,YES</t>
+  </si>
+  <si>
+    <t>r35,NO</t>
+  </si>
+  <si>
+    <t>r36,NO</t>
+  </si>
+  <si>
+    <t>r36,YES</t>
+  </si>
+  <si>
+    <t>r37,YES</t>
+  </si>
+  <si>
+    <t>r39,YES</t>
+  </si>
+  <si>
+    <t>r0,YES</t>
+  </si>
+  <si>
+    <t>r37,NO</t>
+  </si>
+  <si>
+    <t>r34,YES</t>
+  </si>
+  <si>
+    <t>r34,NO</t>
+  </si>
+  <si>
+    <t>r33,NO</t>
   </si>
 </sst>
 </file>
@@ -663,7 +660,7 @@
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -774,7 +771,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" t="s">
@@ -804,10 +801,10 @@
         <v>31</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -836,10 +833,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -868,10 +865,10 @@
         <v>33</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -897,13 +894,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="I9" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -929,13 +926,13 @@
         <v>12</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -960,15 +957,9 @@
       <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="17"/>
       <c r="J11" t="s">
         <v>24</v>
       </c>
@@ -993,13 +984,13 @@
         <v>12</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -1025,13 +1016,13 @@
         <v>12</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -1090,10 +1081,10 @@
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>12</v>
